--- a/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/data/zero.bag.xlsx
+++ b/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/data/zero.bag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5173EE3-1EB3-EC4A-9053-A010401A9676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33401557-2ED3-BA44-93FA-187179788C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68100" yWindow="3340" windowWidth="43040" windowHeight="24780" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="67120" yWindow="-860" windowWidth="43040" windowHeight="24780" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
   <si>
     <t>key</t>
   </si>
@@ -224,6 +224,223 @@
   </si>
   <si>
     <t>BLOCK_ZERO_D_TP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久许可 - Permanent License</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signIssuer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorized</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bagId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可证名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>License发证机构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否授权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>块风格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>块图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>块排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>块编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>块名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包关联ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>块主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块块相关信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_BLOCK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-D.VERT.X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vert.x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Source</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK_TP_VERTX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elastic Search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-D.ES</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK_TP_ES</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccdb1204-f097-4f95-a9b1-4afd67d9b0ab</t>
+  </si>
+  <si>
+    <t>4b616a07-28fa-448d-a59a-85cc7603bc32</t>
+  </si>
+  <si>
+    <t>85cfba29-181e-49d4-8424-d750382b8154</t>
+  </si>
+  <si>
+    <t>c0760d75-3077-4e25-afb4-317f3a0fcb5b</t>
+  </si>
+  <si>
+    <t>2aae9013-07a6-4241-9f2a-6c87a1182c83</t>
+  </si>
+  <si>
+    <t>1dae8535-1e45-4e20-a68d-6124e15eb108</t>
+  </si>
+  <si>
+    <t>Neo 4j</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-D.NEO4J</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK_TP_NEO4J</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.5 - Latest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.17.1 - Latest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.3 - Latest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-D.K8S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK_TP_K8S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.23 - Latest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camunda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-D.CAMUNDA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK_TP_CAMUNDA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.16.0 - Latest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My SQL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-D.MYSQL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK_TP_MYSQL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3.37 - Latest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5777765e-fc59-4e31-9f58-ea5d2dc6f850</t>
+  </si>
+  <si>
+    <t>TiDB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-D.TIDB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK_TP_TIDB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4 - Latest</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +518,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -346,11 +563,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,12 +611,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -387,6 +618,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -703,51 +949,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="53.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -776,7 +1024,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -805,15 +1053,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -830,15 +1078,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -855,15 +1103,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -880,7 +1128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
@@ -888,10 +1136,10 @@
         <f>A$5</f>
         <v>6298664f-cb8c-410f-ac85-aeaeff6fe6d8</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -908,7 +1156,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
@@ -916,10 +1164,10 @@
         <f>A$5</f>
         <v>6298664f-cb8c-410f-ac85-aeaeff6fe6d8</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -936,9 +1184,337 @@
         <v>36</v>
       </c>
     </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f>A$9</f>
+        <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1005</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="8" t="str">
+        <f>A$9</f>
+        <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1010</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="8" t="str">
+        <f t="shared" ref="B18:B22" si="0">A$9</f>
+        <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1015</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1020</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1025</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1030</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1035</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C13:K13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/data/zero.bag.xlsx
+++ b/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/data/zero.bag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33401557-2ED3-BA44-93FA-187179788C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C587B18-24D7-924C-A39E-CD472E03B964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67120" yWindow="-860" windowWidth="43040" windowHeight="24780" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -203,14 +203,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ZERO-D-STD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZERO-D-TP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Zero Kernel Standard</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -441,6 +433,14 @@
   </si>
   <si>
     <t>5.4 - Latest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-D.STD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-D.TP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -952,7 +952,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1080,108 +1080,108 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="11" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="B6" s="7" t="str">
+        <f>A$5</f>
+        <v>6298664f-cb8c-410f-ac85-aeaeff6fe6d8</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F6" s="5">
-        <v>11000</v>
+        <v>1100</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="11" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f>A$5</f>
+        <v>6298664f-cb8c-410f-ac85-aeaeff6fe6d8</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F7" s="5">
-        <v>12000</v>
+        <v>1105</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="7" t="str">
-        <f>A$5</f>
-        <v>6298664f-cb8c-410f-ac85-aeaeff6fe6d8</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5">
-        <v>1100</v>
+        <v>11000</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="7" t="str">
-        <f>A$5</f>
-        <v>6298664f-cb8c-410f-ac85-aeaeff6fe6d8</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F9" s="5">
-        <v>1105</v>
+        <v>12000</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1189,10 +1189,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -1205,37 +1205,37 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="J14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1243,16 +1243,16 @@
         <v>0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>18</v>
@@ -1264,251 +1264,251 @@
         <v>17</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="8" t="str">
-        <f>A$9</f>
+        <f>A$7</f>
         <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="F16" s="5">
         <v>1005</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="8" t="str">
-        <f>A$9</f>
+        <f>A$7</f>
         <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F17" s="5">
         <v>1010</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" s="8" t="str">
-        <f t="shared" ref="B18:B22" si="0">A$9</f>
+        <f>A$7</f>
         <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F18" s="5">
         <v>1015</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>A$7</f>
         <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F19" s="5">
         <v>1020</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B20" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>A$7</f>
         <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F20" s="5">
         <v>1025</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="8" t="str">
+        <f>A$7</f>
+        <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="E21" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F21" s="5">
         <v>1030</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>A$7</f>
         <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F22" s="5">
         <v>1035</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/data/zero.bag.xlsx
+++ b/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/data/zero.bag.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C587B18-24D7-924C-A39E-CD472E03B964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BAADA4-3211-6544-A3E3-EB90EAE521FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67120" yWindow="-860" windowWidth="43040" windowHeight="24780" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -357,18 +357,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.2.5 - Latest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.17.1 - Latest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.4.3 - Latest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Kubernetes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -441,6 +429,18 @@
   </si>
   <si>
     <t>ZERO-D.TP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.6 - Latest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.17.5 - Latest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.1 - Latest</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -952,7 +952,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1090,7 +1090,7 @@
         <v>42</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>43</v>
@@ -1118,7 +1118,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>44</v>
@@ -1278,7 +1278,7 @@
         <v>74</v>
       </c>
       <c r="B16" s="8" t="str">
-        <f>A$7</f>
+        <f t="shared" ref="B16:B22" si="0">A$7</f>
         <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>47</v>
@@ -1312,7 +1312,7 @@
         <v>75</v>
       </c>
       <c r="B17" s="8" t="str">
-        <f>A$7</f>
+        <f t="shared" si="0"/>
         <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>47</v>
@@ -1346,7 +1346,7 @@
         <v>76</v>
       </c>
       <c r="B18" s="8" t="str">
-        <f>A$7</f>
+        <f t="shared" si="0"/>
         <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>47</v>
@@ -1380,14 +1380,14 @@
         <v>77</v>
       </c>
       <c r="B19" s="8" t="str">
-        <f>A$7</f>
+        <f t="shared" si="0"/>
         <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>69</v>
@@ -1396,14 +1396,14 @@
         <v>1020</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>47</v>
@@ -1414,14 +1414,14 @@
         <v>78</v>
       </c>
       <c r="B20" s="8" t="str">
-        <f>A$7</f>
+        <f t="shared" si="0"/>
         <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>69</v>
@@ -1430,14 +1430,14 @@
         <v>1025</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>47</v>
@@ -1445,17 +1445,17 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B21" s="8" t="str">
-        <f>A$7</f>
+        <f t="shared" si="0"/>
         <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>69</v>
@@ -1464,14 +1464,14 @@
         <v>1030</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>47</v>
@@ -1482,14 +1482,14 @@
         <v>79</v>
       </c>
       <c r="B22" s="8" t="str">
-        <f>A$7</f>
+        <f t="shared" si="0"/>
         <v>3399d3e9-ae4c-4b7c-b3fd-fe918bad83a5</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>69</v>
@@ -1498,14 +1498,14 @@
         <v>1035</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>47</v>
